--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Updated Input Data for v1.2.4\Files\Elec\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>Solar PV</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -70,30 +67,9 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Perc Decline per Doubling</t>
-  </si>
-  <si>
     <t>Michael Liebreich</t>
   </si>
   <si>
-    <t>http://about.bnef.com/content/uploads/sites/4/2015/04/Final-keynote_ML.pdf</t>
-  </si>
-  <si>
-    <t>Slide 13</t>
-  </si>
-  <si>
-    <t>Bloomberg New Energy Finance Summit 2015 Keynote</t>
-  </si>
-  <si>
-    <t>Slide 38</t>
-  </si>
-  <si>
-    <t>http://bnef.com/InsightDownload/7566/pdf/</t>
-  </si>
-  <si>
-    <t>Bloomberg New Energy Finance Summit 2013 Keynote</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -103,32 +79,38 @@
     <t>onshore wind</t>
   </si>
   <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-  </si>
-  <si>
-    <t>Rubin et al.</t>
-  </si>
-  <si>
-    <t>A review of learning rates for electricity supply technologies</t>
-  </si>
-  <si>
-    <t>https://www.andrew.cmu.edu/user/ilimade/Ines_Azevedo/papers/Rubin_2015.pdf</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>In the U.S. dataset, we only use this variable for onshore/offshore wind and solar PV.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Perc Decline per Doubling (dimensionless)</t>
+  </si>
+  <si>
+    <t>Bloomberg New Energy Finance Summit 2017 Keynote</t>
+  </si>
+  <si>
+    <t>https://data.bloomberglp.com/professional/sites/24/2017/09/BNEF-Summit-London-2017-Michael-Liebreich-State-of-the-Industry.pdf</t>
+  </si>
+  <si>
+    <t>Slide 52</t>
+  </si>
+  <si>
+    <t>Learning Rates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +122,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,10 +158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -182,8 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,23 +479,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A10" sqref="A10:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,114 +503,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -626,125 +562,149 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>0.12</v>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C6F655-92E0-44E7-9579-174A17E96980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -40,9 +54,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -91,9 +102,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Perc Decline per Doubling (dimensionless)</t>
-  </si>
-  <si>
     <t>Bloomberg New Energy Finance Summit 2017 Keynote</t>
   </si>
   <si>
@@ -104,13 +112,46 @@
   </si>
   <si>
     <t>Learning Rates</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Perc Decline per Doubling</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +171,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,18 +218,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -193,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,9 +293,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,79 +538,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.73046875" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -558,156 +616,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>